--- a/data/georgia_census/imereti/bagdadi/education_graduates.xlsx
+++ b/data/georgia_census/imereti/bagdadi/education_graduates.xlsx
@@ -1839,13 +1839,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19FB9116-5E0D-4DF6-8980-8333A7B607DC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F9D951C-49FC-4F2D-9433-6F830E878726}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F63B8577-93F5-4E2C-8630-2596C11D70DC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F142D2AE-DD28-4246-960F-F7DCA63C2E1E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D8DD857-AD01-45F9-8059-2F35A6EDE052}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5ADEAB5-57D5-4934-B6E4-FEE4F0C74440}"/>
 </file>